--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="4">
   <si>
     <t>Reported hours for:</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Time (hours)</t>
+  </si>
+  <si>
+    <t>Reported hours for: Jonathan</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -447,6 +450,44 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CSida &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
@@ -471,7 +512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -479,6 +520,44 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CSida &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
@@ -509,7 +588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -517,7 +596,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -547,7 +626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -585,7 +664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -623,7 +702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -661,7 +740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -699,7 +778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -735,80 +814,4 @@
     <oddFooter>&amp;CSida &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CSida &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CSida &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15360" windowHeight="10480"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15360" windowHeight="10480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>Reported hours for:</t>
   </si>
@@ -48,6 +48,30 @@
   </si>
   <si>
     <t>Reported hours for: Jonathan</t>
+  </si>
+  <si>
+    <t>Project meetings</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>Project plan</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project meetings </t>
+  </si>
+  <si>
+    <t>"tutorial project"</t>
+  </si>
+  <si>
+    <t>2.5</t>
   </si>
 </sst>
 </file>
@@ -112,11 +136,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -436,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -460,6 +487,30 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -514,9 +565,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -538,6 +591,30 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -552,9 +629,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -574,6 +653,14 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -71,7 +71,7 @@
     <t>"tutorial project"</t>
   </si>
   <si>
-    <t>2.5</t>
+    <t>Database handling</t>
   </si>
 </sst>
 </file>
@@ -140,10 +140,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -476,10 +476,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -493,7 +493,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -509,7 +509,7 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -538,10 +538,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -578,10 +578,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -629,10 +629,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -642,10 +642,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -659,8 +659,16 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -688,10 +696,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -726,10 +734,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -764,10 +772,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -802,10 +810,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -840,10 +848,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -878,10 +886,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Airkick/Documents/Årskurs 3/Software Engineering Project/DVA313-Solar-Energy/reported hours/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/DVA313-Solar-Energy/reported hours/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -632,7 +632,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -668,7 +668,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -136,7 +136,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -145,6 +145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -632,7 +633,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -667,8 +668,8 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>2</v>
+      <c r="B4" s="4">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
   <si>
     <t>Reported hours for:</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Database handling</t>
+  </si>
+  <si>
+    <t>Presentation</t>
   </si>
 </sst>
 </file>
@@ -142,10 +145,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -477,10 +480,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -539,10 +542,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -579,10 +582,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -630,10 +633,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -643,10 +646,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -668,8 +671,16 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -697,10 +708,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -735,10 +746,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -773,10 +784,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -811,10 +822,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -849,10 +860,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -887,10 +898,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
   <si>
     <t>Reported hours for:</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>Presentation</t>
+  </si>
+  <si>
+    <t>implementation</t>
+  </si>
+  <si>
+    <t>Project presentation</t>
+  </si>
+  <si>
+    <t>Excel creation</t>
   </si>
 </sst>
 </file>
@@ -633,10 +642,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -681,6 +690,30 @@
       </c>
       <c r="B5">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
   <si>
     <t>Reported hours for:</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Excel creation</t>
+  </si>
+  <si>
+    <t>Excel upload</t>
   </si>
 </sst>
 </file>
@@ -642,10 +645,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -714,6 +717,14 @@
       </c>
       <c r="B8" s="3">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15360" windowHeight="10480" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15360" windowHeight="10480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>Reported hours for:</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>Excel upload</t>
+  </si>
+  <si>
+    <t>meetings</t>
+  </si>
+  <si>
+    <t>gui</t>
+  </si>
+  <si>
+    <t>design description</t>
   </si>
 </sst>
 </file>
@@ -647,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -741,9 +750,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -763,6 +774,30 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -753,7 +753,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -789,7 +789,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -797,7 +797,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>Reported hours for:</t>
   </si>
@@ -750,10 +750,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -789,7 +789,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -798,6 +798,14 @@
       </c>
       <c r="B5">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -805,7 +805,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15360" windowHeight="10480" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15360" windowHeight="10480" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
   <si>
     <t>Reported hours for:</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>design description</t>
+  </si>
+  <si>
+    <t>presentation</t>
+  </si>
+  <si>
+    <t>presentation prep</t>
   </si>
 </sst>
 </file>
@@ -752,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -822,9 +828,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -844,6 +852,38 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -883,7 +883,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15360" windowHeight="10480" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15360" windowHeight="10480" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>Reported hours for:</t>
   </si>
@@ -830,7 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -900,9 +900,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -922,6 +924,14 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -931,7 +931,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -903,7 +903,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -931,7 +931,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -903,7 +903,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -931,7 +931,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15360" windowHeight="10480" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15360" windowHeight="10480" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t>Reported hours for:</t>
   </si>
@@ -902,7 +902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -948,9 +948,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -970,6 +972,14 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -951,7 +951,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -979,7 +979,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -979,7 +979,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -979,7 +979,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -979,7 +979,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -979,7 +979,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -951,7 +951,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -979,7 +979,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15360" windowHeight="10480" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15360" windowHeight="10480" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
   <si>
     <t>Reported hours for:</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>presentation prep</t>
+  </si>
+  <si>
+    <t>meeting</t>
   </si>
 </sst>
 </file>
@@ -950,7 +953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -998,7 +1001,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1034,9 +1039,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1056,6 +1063,22 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1070,7 +1070,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1070,7 +1070,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -1070,7 +1070,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -1070,7 +1070,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -1070,7 +1070,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -1070,7 +1070,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15360" windowHeight="10480" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15360" windowHeight="10480" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
   <si>
     <t>Reported hours for:</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>meeting</t>
+  </si>
+  <si>
+    <t>implementation and slack</t>
   </si>
 </sst>
 </file>
@@ -561,9 +564,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -583,6 +588,14 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1041,7 +1054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -567,7 +567,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -595,7 +595,7 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -567,7 +567,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -595,7 +595,7 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -567,7 +567,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -595,7 +595,7 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>Reported hours for:</t>
   </si>
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -596,6 +596,14 @@
       </c>
       <c r="B3">
         <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -567,7 +567,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -595,7 +595,7 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -567,7 +567,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -595,7 +595,7 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t>Reported hours for:</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>implementation and slack</t>
+  </si>
+  <si>
+    <t>Presentation and prep</t>
+  </si>
+  <si>
+    <t>Final report</t>
   </si>
 </sst>
 </file>
@@ -564,10 +570,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -595,14 +601,22 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>16.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
     </row>

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -573,7 +573,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -601,7 +601,7 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">

--- a/reported hours/Reported hours - Jonathan Larsson.xlsx
+++ b/reported hours/Reported hours - Jonathan Larsson.xlsx
@@ -573,7 +573,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -617,7 +617,7 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
